--- a/experiment_results/DataV2_NF_0.5/Email/DISABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_NF_0.5/Email/DISABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -1207,10 +1207,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -1783,19 +1783,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H31">
         <v>15</v>
@@ -2197,19 +2197,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -2627,19 +2627,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2665,19 +2665,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -2744,19 +2744,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -2782,19 +2782,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>0.4048582995951417</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H19">
         <v>36</v>
@@ -2896,19 +2896,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>1.214574898785425</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -2934,19 +2934,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0.8097165991902834</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>1.619433198380567</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -3282,19 +3282,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G32">
-        <v>7.28744939271255</v>
+        <v>12.95546558704453</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -3358,19 +3358,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>0.8097165991902834</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>0.8097165991902834</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -3614,19 +3614,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>7.692307692307693</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>7.692307692307693</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="H3">
         <v>111</v>
@@ -3655,19 +3655,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -4123,19 +4123,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -4202,19 +4202,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -4354,19 +4354,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>5.263157894736842</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -4740,19 +4740,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>7.28744939271255</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -4816,19 +4816,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>3.643724696356275</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G34">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -5031,19 +5031,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="D2">
-        <v>86.23481781376519</v>
+        <v>96.76113360323887</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G2">
-        <v>86.23481781376519</v>
+        <v>96.76113360323887</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -5072,19 +5072,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D3">
-        <v>83.40080971659918</v>
+        <v>91.49797570850203</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G3">
-        <v>83.40080971659918</v>
+        <v>91.49797570850203</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -5113,19 +5113,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H4">
         <v>106</v>
@@ -5590,10 +5590,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H16">
         <v>63</v>
@@ -5660,19 +5660,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>29.95951417004049</v>
+        <v>46.55870445344129</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>21.86234817813765</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -5707,10 +5707,10 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="G19">
-        <v>20.24291497975709</v>
+        <v>66.80161943319838</v>
       </c>
       <c r="H19">
         <v>212</v>
@@ -5821,10 +5821,10 @@
         <v>88</v>
       </c>
       <c r="F22">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22">
-        <v>23.07692307692308</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="H22">
         <v>189</v>
@@ -5850,19 +5850,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>13.36032388663968</v>
+        <v>12.55060728744939</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G23">
-        <v>23.07692307692308</v>
+        <v>24.2914979757085</v>
       </c>
       <c r="H23">
         <v>207</v>
@@ -6207,10 +6207,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G32">
-        <v>10.12145748987854</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H32">
         <v>118</v>
@@ -6283,10 +6283,10 @@
         <v>88</v>
       </c>
       <c r="F34">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G34">
-        <v>19.83805668016194</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="H34">
         <v>185</v>
@@ -6312,19 +6312,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>3.643724696356275</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G35">
-        <v>3.643724696356275</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -6489,19 +6489,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D2">
-        <v>19.02834008097166</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G2">
-        <v>19.02834008097166</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -6530,19 +6530,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D3">
-        <v>14.97975708502024</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="G3">
-        <v>14.97975708502024</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -6571,19 +6571,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H4">
         <v>106</v>
@@ -7001,19 +7001,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H15">
         <v>96</v>
@@ -7039,19 +7039,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>2.834008097165992</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H16">
         <v>63</v>
@@ -7118,19 +7118,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>23.48178137651822</v>
+        <v>22.26720647773279</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>7.692307692307693</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -7156,19 +7156,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>6.882591093117409</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G19">
-        <v>15.78947368421053</v>
+        <v>11.74089068825911</v>
       </c>
       <c r="H19">
         <v>212</v>
@@ -7270,19 +7270,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>5.263157894736842</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>7.28744939271255</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H22">
         <v>189</v>
@@ -7308,19 +7308,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>4.8582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>7.28744939271255</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H23">
         <v>207</v>
@@ -7656,19 +7656,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G32">
-        <v>10.12145748987854</v>
+        <v>38.05668016194332</v>
       </c>
       <c r="H32">
         <v>118</v>
@@ -7732,19 +7732,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>4.8582995951417</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G34">
-        <v>6.477732793522267</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H34">
         <v>185</v>
@@ -7770,19 +7770,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>2.024291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>2.024291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -8576,19 +8576,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>21.86234817813765</v>
+        <v>22.26720647773279</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>3.238866396761134</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -9123,10 +9123,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>11.33603238866397</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -9487,19 +9487,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -9955,19 +9955,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -10034,19 +10034,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -10572,19 +10572,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>8.097165991902834</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G32">
-        <v>10.12145748987854</v>
+        <v>14.17004048582996</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -12321,19 +12321,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>13.76518218623482</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>13.76518218623482</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -12362,19 +12362,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>15.78947368421053</v>
+        <v>25.50607287449393</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G3">
-        <v>15.78947368421053</v>
+        <v>25.50607287449393</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -12403,19 +12403,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -12520,19 +12520,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -12842,10 +12842,10 @@
         <v>43</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>6.072874493927126</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -12880,10 +12880,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -12950,19 +12950,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>23.48178137651822</v>
+        <v>29.95951417004049</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G18">
-        <v>8.097165991902834</v>
+        <v>14.17004048582996</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -12997,10 +12997,10 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G19">
-        <v>16.59919028340081</v>
+        <v>34.0080971659919</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -13102,19 +13102,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>1.619433198380567</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>2.42914979757085</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -13447,19 +13447,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>5.263157894736842</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31">
-        <v>5.263157894736842</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -13488,19 +13488,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>6.882591093117409</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>38.05668016194332</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -13564,19 +13564,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>1.214574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>1.619433198380567</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -13602,19 +13602,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -13861,19 +13861,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -14300,10 +14300,10 @@
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -14329,19 +14329,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -14408,19 +14408,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -14560,19 +14560,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>1.214574898785425</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -14598,19 +14598,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>0.8097165991902834</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>1.619433198380567</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -14946,19 +14946,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>7.28744939271255</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -15022,19 +15022,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>0.8097165991902834</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>0.8097165991902834</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -15319,19 +15319,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -15787,19 +15787,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -15866,19 +15866,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -15904,19 +15904,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H19">
         <v>36</v>
@@ -16027,10 +16027,10 @@
         <v>88</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -16404,19 +16404,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>7.28744939271255</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -16489,10 +16489,10 @@
         <v>88</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>0.8097165991902834</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -16777,19 +16777,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -17245,19 +17245,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -17324,19 +17324,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -17523,10 +17523,10 @@
         <v>64</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -17862,19 +17862,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>9.311740890688259</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -18153,19 +18153,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>37.65182186234818</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>37.65182186234818</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -18194,19 +18194,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>34.41295546558704</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>34.41295546558704</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -18235,19 +18235,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -18352,19 +18352,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -18665,19 +18665,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G15">
-        <v>4.8582995951417</v>
+        <v>10.93117408906883</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -18712,10 +18712,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -18782,19 +18782,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>29.1497975708502</v>
+        <v>46.55870445344129</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>19.83805668016194</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -18820,19 +18820,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>9.311740890688259</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="G19">
-        <v>22.67206477732794</v>
+        <v>70.04048582995951</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -18934,19 +18934,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>8.906882591093117</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G22">
-        <v>16.59919028340081</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -18972,19 +18972,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>8.097165991902834</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G23">
-        <v>15.78947368421053</v>
+        <v>29.1497975708502</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -19279,19 +19279,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -19329,10 +19329,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>31.17408906882591</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -19396,19 +19396,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>8.502024291497975</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G34">
-        <v>15.38461538461539</v>
+        <v>18.21862348178137</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -19434,19 +19434,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>5.263157894736842</v>
+        <v>16.19433198380567</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G35">
-        <v>5.263157894736842</v>
+        <v>16.19433198380567</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -19611,19 +19611,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>78.13765182186235</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>78.13765182186235</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -19652,19 +19652,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>79.75708502024291</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>79.75708502024291</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -19693,19 +19693,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -19810,19 +19810,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -20123,19 +20123,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>6.477732793522267</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>8.502024291497975</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -20170,10 +20170,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -20240,19 +20240,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>30.76923076923077</v>
+        <v>46.55870445344129</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>22.67206477732794</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -20278,19 +20278,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>10.52631578947368</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="G19">
-        <v>23.48178137651822</v>
+        <v>70.04048582995951</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -20392,19 +20392,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>19.02834008097166</v>
+        <v>13.36032388663968</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G22">
-        <v>35.22267206477733</v>
+        <v>31.17408906882591</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -20430,19 +20430,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>15.78947368421053</v>
+        <v>11.74089068825911</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G23">
-        <v>32.38866396761134</v>
+        <v>38.8663967611336</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -20737,19 +20737,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -20778,19 +20778,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>6.882591093117409</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -20854,19 +20854,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>18.62348178137652</v>
+        <v>12.95546558704453</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G34">
-        <v>34.41295546558704</v>
+        <v>30.36437246963563</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -20892,19 +20892,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D35">
-        <v>48.17813765182186</v>
+        <v>61.1336032388664</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="G35">
-        <v>48.17813765182186</v>
+        <v>61.1336032388664</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -21069,19 +21069,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>17.81376518218623</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>17.81376518218623</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -21110,19 +21110,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>20.64777327935223</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>20.64777327935223</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -21151,19 +21151,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -21268,19 +21268,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -21581,19 +21581,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>6.072874493927126</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -21628,10 +21628,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -21698,19 +21698,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>23.48178137651822</v>
+        <v>46.55870445344129</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>7.692307692307693</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -21736,19 +21736,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>6.882591093117409</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="G19">
-        <v>15.78947368421053</v>
+        <v>56.68016194331984</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -21850,19 +21850,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>2.42914979757085</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G22">
-        <v>3.238866396761134</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -21888,19 +21888,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>0.8097165991902834</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G23">
-        <v>1.619433198380567</v>
+        <v>19.02834008097166</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -22195,19 +22195,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -22236,19 +22236,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -22312,19 +22312,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>2.024291497975709</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G34">
-        <v>2.42914979757085</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -22350,19 +22350,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>1.214574898785425</v>
+        <v>16.59919028340081</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G35">
-        <v>1.214574898785425</v>
+        <v>16.59919028340081</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -22609,19 +22609,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -23048,10 +23048,10 @@
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -23077,19 +23077,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -23156,19 +23156,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -23203,10 +23203,10 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -23308,19 +23308,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0.8097165991902834</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -23355,10 +23355,10 @@
         <v>64</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -23694,19 +23694,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G32">
-        <v>7.28744939271255</v>
+        <v>12.95546558704453</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -23770,19 +23770,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -24535,10 +24535,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -25152,19 +25152,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>8.097165991902834</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -25443,19 +25443,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>17.40890688259109</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>17.40890688259109</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -25484,19 +25484,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>24.2914979757085</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>24.2914979757085</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -25525,19 +25525,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -25642,19 +25642,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -25955,19 +25955,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>4.8582995951417</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -26002,10 +26002,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -26072,19 +26072,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>46.55870445344129</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -26110,19 +26110,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>8.502024291497975</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="G19">
-        <v>18.21862348178137</v>
+        <v>70.04048582995951</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -26224,19 +26224,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>4.453441295546559</v>
+        <v>11.74089068825911</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G22">
-        <v>8.502024291497975</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -26262,19 +26262,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>6.477732793522267</v>
+        <v>11.74089068825911</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="G23">
-        <v>10.12145748987854</v>
+        <v>38.8663967611336</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -26569,19 +26569,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -26610,19 +26610,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>6.882591093117409</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -26686,19 +26686,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>4.048582995951417</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G34">
-        <v>7.692307692307693</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -26724,19 +26724,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="D35">
-        <v>5.263157894736842</v>
+        <v>53.44129554655871</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="G35">
-        <v>5.263157894736842</v>
+        <v>53.44129554655871</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -26901,19 +26901,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>86.23481781376519</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>86.23481781376519</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -26942,19 +26942,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>85.82995951417004</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>85.82995951417004</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -26983,19 +26983,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H4">
         <v>134</v>
@@ -27100,19 +27100,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -27460,10 +27460,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H16">
         <v>81</v>
@@ -27530,19 +27530,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>29.95951417004049</v>
+        <v>46.55870445344129</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>21.86234817813765</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -27577,10 +27577,10 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="G19">
-        <v>20.24291497975709</v>
+        <v>70.04048582995951</v>
       </c>
       <c r="H19">
         <v>216</v>
@@ -27682,19 +27682,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>14.17004048582996</v>
+        <v>13.36032388663968</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G22">
-        <v>25.10121457489878</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="H22">
         <v>206</v>
@@ -27720,19 +27720,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>13.36032388663968</v>
+        <v>11.74089068825911</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G23">
-        <v>23.07692307692308</v>
+        <v>31.17408906882591</v>
       </c>
       <c r="H23">
         <v>211</v>
@@ -28068,19 +28068,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>6.882591093117409</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H32">
         <v>135</v>
@@ -28144,19 +28144,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>13.36032388663968</v>
+        <v>12.95546558704453</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G34">
-        <v>23.48178137651822</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="H34">
         <v>202</v>
@@ -28182,19 +28182,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="D35">
-        <v>32.38866396761134</v>
+        <v>55.46558704453442</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="G35">
-        <v>32.38866396761134</v>
+        <v>55.46558704453442</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -28441,19 +28441,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -28871,19 +28871,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -28909,19 +28909,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -28988,19 +28988,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -29035,10 +29035,10 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>1.214574898785425</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="H19">
         <v>36</v>
@@ -29140,19 +29140,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1.214574898785425</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -29178,19 +29178,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>1.214574898785425</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>2.42914979757085</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -29526,19 +29526,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G32">
-        <v>4.8582995951417</v>
+        <v>13.76518218623482</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -29602,19 +29602,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>0.8097165991902834</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>0.8097165991902834</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -29817,19 +29817,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>7.692307692307693</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>7.692307692307693</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H2">
         <v>83</v>
@@ -29858,19 +29858,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7.692307692307693</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>7.692307692307693</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H3">
         <v>93</v>
@@ -29899,19 +29899,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -30367,19 +30367,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -30493,10 +30493,10 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>7.28744939271255</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="H19">
         <v>36</v>
@@ -30598,19 +30598,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>6.477732793522267</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G22">
-        <v>9.7165991902834</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -30636,19 +30636,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>7.692307692307693</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>11.74089068825911</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -30984,19 +30984,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>7.28744939271255</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -31060,19 +31060,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>6.072874493927126</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G34">
-        <v>8.906882591093117</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -31316,19 +31316,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>3.643724696356275</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>3.643724696356275</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -31825,19 +31825,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -32442,19 +32442,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>8.097165991902834</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G32">
-        <v>10.12145748987854</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -32556,19 +32556,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>1.214574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>1.214574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -33283,10 +33283,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -33909,10 +33909,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G32">
-        <v>10.12145748987854</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -34273,19 +34273,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -34750,10 +34750,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>6.072874493927126</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -35367,10 +35367,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G32">
-        <v>7.28744939271255</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -35649,19 +35649,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>8.097165991902834</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>8.097165991902834</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H2">
         <v>106</v>
@@ -35731,19 +35731,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -36161,19 +36161,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -36199,19 +36199,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -36278,19 +36278,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -36316,19 +36316,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1.619433198380567</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>3.238866396761134</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H19">
         <v>36</v>
@@ -36430,19 +36430,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>5.263157894736842</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G22">
-        <v>8.097165991902834</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H22">
         <v>22</v>
@@ -36468,10 +36468,10 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>5.668016194331984</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E23">
         <v>64</v>
@@ -36816,19 +36816,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G32">
-        <v>7.28744939271255</v>
+        <v>12.95546558704453</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -36892,19 +36892,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>4.8582995951417</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G34">
-        <v>7.28744939271255</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H34">
         <v>20</v>
@@ -37189,19 +37189,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -37657,19 +37657,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -37736,19 +37736,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>22.26720647773279</v>
+        <v>21.86234817813765</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -37935,10 +37935,10 @@
         <v>64</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -38040,19 +38040,19 @@
         <v>58</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E26">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>1.619433198380567</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -38274,19 +38274,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>4.048582995951417</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>4.048582995951417</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -38388,19 +38388,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>3.238866396761134</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>3.238866396761134</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -40023,19 +40023,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>16.19433198380567</v>
+        <v>37.65182186234818</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="G2">
-        <v>16.19433198380567</v>
+        <v>37.65182186234818</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -40064,19 +40064,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>18.62348178137652</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G3">
-        <v>18.62348178137652</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -40105,19 +40105,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -40222,19 +40222,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -40544,10 +40544,10 @@
         <v>43</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G15">
-        <v>4.8582995951417</v>
+        <v>20.64777327935223</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -40582,10 +40582,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -40652,19 +40652,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>35.22267206477733</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>19.4331983805668</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -40690,19 +40690,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>7.28744939271255</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="G19">
-        <v>18.21862348178137</v>
+        <v>56.2753036437247</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -40804,19 +40804,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>6.072874493927126</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -40842,19 +40842,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>4.8582995951417</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>7.28744939271255</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -41190,19 +41190,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>6.882591093117409</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>40.08097165991903</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -41275,10 +41275,10 @@
         <v>88</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>5.263157894736842</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -41304,19 +41304,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>3.643724696356275</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>3.643724696356275</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -41481,19 +41481,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D2">
-        <v>15.78947368421053</v>
+        <v>43.31983805668016</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>15.78947368421053</v>
+        <v>43.31983805668016</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -41522,19 +41522,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>16.19433198380567</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>16.19433198380567</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -41563,19 +41563,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -41680,19 +41680,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -41993,19 +41993,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G15">
-        <v>4.8582995951417</v>
+        <v>20.64777327935223</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -42031,19 +42031,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>2.834008097165992</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E16">
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>18.62348178137652</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -42110,19 +42110,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D18">
-        <v>29.95951417004049</v>
+        <v>36.03238866396762</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>17.00404858299595</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -42148,19 +42148,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>8.502024291497975</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="G19">
-        <v>38.05668016194332</v>
+        <v>63.56275303643725</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -42262,19 +42262,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>7.28744939271255</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G22">
-        <v>10.93117408906883</v>
+        <v>20.64777327935223</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -42300,19 +42300,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>8.502024291497975</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G23">
-        <v>14.97975708502024</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -42648,19 +42648,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>6.882591093117409</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="G32">
-        <v>7.692307692307693</v>
+        <v>40.89068825910931</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -42724,19 +42724,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>6.882591093117409</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G34">
-        <v>9.311740890688259</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -42762,19 +42762,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>4.048582995951417</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>4.048582995951417</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -43489,10 +43489,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -44115,10 +44115,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G32">
-        <v>10.12145748987854</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H32">
         <v>26</v>
@@ -44220,19 +44220,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>1.214574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>1.214574898785425</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H35">
         <v>3</v>
